--- a/graphs/PT_Employment_tables_Formatted.xlsx
+++ b/graphs/PT_Employment_tables_Formatted.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1340" yWindow="940" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="PT_Employment_tables_Formatted." sheetId="1" r:id="rId1"/>
+    <sheet name="PT_Employment_table_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,21 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Cluster 1 (n=351)</t>
-  </si>
-  <si>
-    <t>Cluster 2 (n=1240)</t>
-  </si>
-  <si>
-    <t>Cluster 3 (n=756)</t>
-  </si>
-  <si>
-    <t>Cluster 4 (n=1213)</t>
-  </si>
-  <si>
-    <t>Cluster 5 (n=893)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Cluster 1 (n=953)</t>
+  </si>
+  <si>
+    <t>Cluster 2 (n=1027)</t>
+  </si>
+  <si>
+    <t>Cluster 3 (n=391)</t>
+  </si>
+  <si>
+    <t>Cluster 4 (n=1641)</t>
+  </si>
+  <si>
+    <t>Cluster 5 (n=441)</t>
   </si>
   <si>
     <t>Teaching</t>
@@ -50,10 +50,7 @@
     <t>Research</t>
   </si>
   <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t>Administration/Other</t>
   </si>
   <si>
     <t>Assistant Professor</t>
@@ -108,8 +105,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,10 +119,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,24 +163,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,434 +464,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="6" width="16.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.82</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.98</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.06</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="F5" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.05</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C9" s="4">
         <v>0.02</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.31</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.46</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-0.17</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="F9" s="5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="F18" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1.75</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2.79</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.63</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="E15" s="5">
-        <v>-0.17</v>
-      </c>
-      <c r="F15" s="5">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.69</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.45</v>
-      </c>
-    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="6">
-        <v>0.21</v>
+        <v>11005.33</v>
       </c>
       <c r="C19" s="6">
-        <v>0.65</v>
+        <v>21356.14</v>
       </c>
       <c r="D19" s="6">
-        <v>0.88</v>
+        <v>12272.68</v>
       </c>
       <c r="E19" s="6">
-        <v>0.51</v>
+        <v>11256.67</v>
       </c>
       <c r="F19" s="6">
-        <v>0.45</v>
+        <v>34657.24</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="7">
-        <v>36756.26</v>
-      </c>
-      <c r="C20" s="7">
-        <v>18573.8</v>
-      </c>
-      <c r="D20" s="7">
-        <v>16337.2</v>
-      </c>
-      <c r="E20" s="7">
-        <v>8683.5</v>
-      </c>
-      <c r="F20" s="7">
-        <v>13602.82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="8">
-        <v>7604.8</v>
-      </c>
-      <c r="C21" s="8">
-        <v>3713.26</v>
-      </c>
-      <c r="D21" s="8">
-        <v>3316.54</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2964.21</v>
-      </c>
-      <c r="F21" s="8">
-        <v>3487.01</v>
+      <c r="B20" s="8">
+        <v>3056.51</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4020.35</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3041.47</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3190.15</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6770.13</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/PT_Employment_tables_Formatted.xlsx
+++ b/graphs/PT_Employment_tables_Formatted.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="940" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PT_Employment_table_1" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
